--- a/TestData/TMTI0045469_VerifyNewTitleAddedinTitleRateSheet.xlsx
+++ b/TestData/TMTI0045469_VerifyNewTitleAddedinTitleRateSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6025011F-9917-4103-8EC1-5B94ABEF39DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5AB9D-41BB-4B3F-BB6D-18E8602E2580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="2970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Global Search User</t>
   </si>
   <si>
-    <t>Schedule A</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>DRC - Original</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,30 +428,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
